--- a/Diagram.xlsx
+++ b/Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE7A8EB-224C-4B5B-84F7-A1067C620800}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9955623B-1A13-4965-B4A7-3A985919B472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88AB1D37-51B4-4435-A80F-915CC3E2ACD6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -120,16 +120,16 @@
     <t>Date_of_Action</t>
   </si>
   <si>
-    <t>TimeCorrected_BY</t>
-  </si>
-  <si>
     <t>Linked By Form Name, Date and Correction Id</t>
   </si>
   <si>
     <t>Each column corresponds to submitted form question most questions so far are less than 20 so room for expansion</t>
   </si>
   <si>
-    <t>Date_Submmited</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Corrected_By</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -269,6 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +587,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +599,7 @@
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -619,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>24</v>
@@ -847,10 +849,12 @@
       <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="6"/>
+      <c r="I9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -862,8 +866,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
@@ -871,8 +875,8 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
@@ -880,32 +884,32 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
@@ -913,8 +917,8 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
@@ -922,8 +926,8 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
@@ -931,8 +935,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18" s="5"/>
@@ -940,8 +944,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
@@ -949,8 +953,8 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="8"/>
@@ -958,8 +962,8 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="6"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
